--- a/biology/Neurosciences/Thierry_de_Barsy/Thierry_de_Barsy.xlsx
+++ b/biology/Neurosciences/Thierry_de_Barsy/Thierry_de_Barsy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le baron[1] Thierry de Barsy est un professeur neurologue belge né le 22 janvier 1941 à Berchem (Anvers) et mort le 14 décembre 2016[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le baron Thierry de Barsy est un professeur neurologue belge né le 22 janvier 1941 à Berchem (Anvers) et mort le 14 décembre 2016.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est diplômé docteur en médecine à l'UCL en 1965, spécialisé en neuropsychiatrie en 1969 après avoir été formé à l'institut Bunge à Anvers chez le Professeur Baron van Bogaert. Aspirant du FNRS, il retourne dans le laboratoire du Professeur Christian de Duve à l'UCL pour y étudier les glycogénoses (maladie de Pompe) et les maladies lysosomiales[3]. 
-Déjà chargé de cours et professeur[4], il sera nommé professeur ordinaire à l'UCL en 1995. Il prendra sa retraite en 2004, mais restera actif en tant que professeur invité jusqu'en 2006 et en tant que consultant externe aux cliniques universitaires Saint Luc jusqu'en 2010.[réf. nécessaire]
-Son épouse, la baronne[5] Anne-Marie de Cannart d’Hamale, est également neurologue et professeur à l'université d'Anvers.
-Il décède le 14 décembre 2016 à l'âge de 75 ans[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est diplômé docteur en médecine à l'UCL en 1965, spécialisé en neuropsychiatrie en 1969 après avoir été formé à l'institut Bunge à Anvers chez le Professeur Baron van Bogaert. Aspirant du FNRS, il retourne dans le laboratoire du Professeur Christian de Duve à l'UCL pour y étudier les glycogénoses (maladie de Pompe) et les maladies lysosomiales. 
+Déjà chargé de cours et professeur, il sera nommé professeur ordinaire à l'UCL en 1995. Il prendra sa retraite en 2004, mais restera actif en tant que professeur invité jusqu'en 2006 et en tant que consultant externe aux cliniques universitaires Saint Luc jusqu'en 2010.[réf. nécessaire]
+Son épouse, la baronne Anne-Marie de Cannart d’Hamale, est également neurologue et professeur à l'université d'Anvers.
+Il décède le 14 décembre 2016 à l'âge de 75 ans.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Mandats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">1970 - 2016: Membre et ancien Président de la Chapelle OLV. Lof en l'église cathédrale d'Anvers
 1972 - 2016: Membre et ancien Président du Groupement Belge de Neuropathologie
@@ -561,7 +577,7 @@
 2005 - 2011: Administrateur du Foyer Saint François à Namur
 2005 - 2016 : Membre invité du comité d'éthique hospitalo-facultaire de l'UCL
 2006 - 2015: Administrateur de la « Ziekenhuis Inkendaal », revalidatiecentrum, Vlezenbeek
-2007 : Président de l'Académie de médecine[7]
+2007 : Président de l'Académie de médecine
 Membre de plusieurs sociétés scientifiques, il a également présidé la Commission ministérielle d'agrément en neurologie pendant 10 ans et était administrateur de la Fondation Reine Fabiola pour la Santé Mentale.
 Il a été pendant 13 ans représentant de la Belgique à l'Union européenne des Médecins spécialistes (UEMS).
 </t>
